--- a/测试数据/C34.301肺下叶恶性肿瘤.xlsx
+++ b/测试数据/C34.301肺下叶恶性肿瘤.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ye-newest\测试数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F451F4-B688-4759-8F84-5154D30485FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="173">
   <si>
     <t>保存机构全称</t>
   </si>
@@ -37,18 +43,12 @@
     <t>疾病名称</t>
   </si>
   <si>
-    <t>身体情况</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
     <t>年龄</t>
   </si>
   <si>
-    <t>样本数量</t>
-  </si>
-  <si>
     <t>民族</t>
   </si>
   <si>
@@ -527,19 +527,29 @@
   </si>
   <si>
     <t>221338-2022521</t>
+  </si>
+  <si>
+    <t>每份样本数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体状况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,345 +564,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -915,253 +617,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,62 +630,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1510,32 +930,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="24.9363636363636" customWidth="1"/>
-    <col min="3" max="3" width="11.4272727272727" customWidth="1"/>
-    <col min="4" max="4" width="11.6272727272727" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="17.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="14.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="22.0909090909091" customWidth="1"/>
-    <col min="14" max="14" width="16.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1557,4518 +977,4827 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="1">
         <v>42369</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>314827</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>42</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="1">
         <v>42369</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>314909</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>44</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="O3" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>42369</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>314909</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>44</v>
       </c>
       <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>42369</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>314550</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>48</v>
       </c>
       <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="1">
         <v>42369</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>314550</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>42369</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>314550</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>42369</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>314550</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="1">
         <v>42369</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>314550</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>42369</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>314550</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>42369</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>314174</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>42369</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>314174</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>42369</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>314174</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>42369</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>314174</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>42369</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>314174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1">
         <v>42369</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>314174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>42369</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>314174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>42369</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>314593</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>42369</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>314593</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>42369</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>314593</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J20">
         <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>42369</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>314593</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>42369</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>314593</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22">
         <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1">
         <v>42369</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23">
         <v>314593</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23">
         <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1">
         <v>42369</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>314652</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
       <c r="D25" s="1">
         <v>42369</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <v>314652</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25">
         <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
         <v>42369</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>314652</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J26">
         <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1">
         <v>42369</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>314652</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J27">
         <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
       <c r="D28" s="1">
         <v>42369</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>314652</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1">
         <v>42369</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>314652</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J29">
         <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1">
         <v>42369</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <v>314748</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J30">
         <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1">
         <v>42369</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F31">
         <v>314748</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J31">
         <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="N31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>42369</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>314748</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J32">
         <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1">
         <v>42369</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <v>314748</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J33">
         <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <v>42369</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34">
         <v>314748</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J34">
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
         <v>42369</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F35">
         <v>314748</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J35">
         <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
       <c r="D36" s="1">
         <v>42369</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <v>314714</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J36">
         <v>33</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="N36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
       <c r="D37" s="1">
         <v>42369</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>314714</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J37">
         <v>33</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1">
         <v>42369</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F38">
         <v>314714</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J38">
         <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1">
         <v>42369</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39">
         <v>314303</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J39">
         <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
         <v>42369</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>314303</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J40">
         <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" t="s">
+        <v>81</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="N40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1">
         <v>42369</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F41">
         <v>314303</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J41">
         <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1">
         <v>42369</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F42">
         <v>314303</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J42">
         <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1">
         <v>42369</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F43">
         <v>314303</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J43">
         <v>56</v>
       </c>
       <c r="K43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>42369</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44">
         <v>314303</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J44">
         <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
       <c r="D45" s="1">
         <v>42369</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45">
         <v>314904</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J45">
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1">
         <v>42369</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>314814</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J46">
         <v>33</v>
       </c>
       <c r="K46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1">
         <v>42369</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F47">
         <v>314814</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J47">
         <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1">
         <v>42369</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F48">
         <v>314814</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J48">
         <v>33</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1">
         <v>42369</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <v>286831</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J49">
         <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1">
         <v>42369</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F50">
         <v>286831</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J50">
         <v>37</v>
       </c>
       <c r="K50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" s="1">
         <v>42369</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51">
         <v>286831</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J51">
         <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1">
         <v>42369</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>314270</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J52">
         <v>57</v>
       </c>
       <c r="K52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1">
         <v>42369</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F53">
         <v>314270</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J53">
         <v>57</v>
       </c>
       <c r="K53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1">
         <v>42369</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <v>314270</v>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J54">
         <v>57</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D55" s="1">
         <v>42369</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>314270</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J55">
         <v>57</v>
       </c>
       <c r="K55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1">
         <v>42369</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>314270</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J56">
         <v>57</v>
       </c>
       <c r="K56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="1">
         <v>42369</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>314270</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J57">
         <v>57</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1">
         <v>42369</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58">
         <v>314314</v>
       </c>
       <c r="G58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J58">
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>109</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1">
         <v>42369</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F59">
         <v>314314</v>
       </c>
       <c r="G59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J59">
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M59" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" t="s">
+        <v>109</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="N59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1">
         <v>42369</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>314314</v>
       </c>
       <c r="G60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J60">
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>109</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1">
         <v>42369</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61">
         <v>314571</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J61">
         <v>42</v>
       </c>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D62" s="1">
         <v>42369</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F62">
         <v>314571</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J62">
         <v>42</v>
       </c>
       <c r="K62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63" s="1">
         <v>42369</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F63">
         <v>314571</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J63">
         <v>42</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64" s="1">
         <v>42369</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F64">
         <v>314294</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J64">
         <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M64" t="s">
+        <v>118</v>
+      </c>
+      <c r="N64" t="s">
+        <v>119</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
         <v>120</v>
       </c>
-      <c r="N64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" t="s">
-        <v>122</v>
-      </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D65" s="1">
         <v>42369</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>314294</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J65">
         <v>77</v>
       </c>
       <c r="K65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N65" t="s">
+        <v>119</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D66" s="1">
         <v>42369</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>314294</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J66">
         <v>77</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>119</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1">
         <v>42369</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>314294</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J67">
         <v>77</v>
       </c>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>119</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D68" s="1">
         <v>42369</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F68">
         <v>314294</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J68">
         <v>77</v>
       </c>
       <c r="K68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>119</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D69" s="1">
         <v>42369</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F69">
         <v>314294</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J69">
         <v>77</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>119</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1">
         <v>42369</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F70">
         <v>314576</v>
       </c>
       <c r="G70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J70">
         <v>53</v>
       </c>
       <c r="K70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D71" s="1">
         <v>42369</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F71">
         <v>314576</v>
       </c>
       <c r="G71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J71">
         <v>53</v>
       </c>
       <c r="K71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1">
         <v>42369</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F72">
         <v>314576</v>
       </c>
       <c r="G72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J72">
         <v>53</v>
       </c>
       <c r="K72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" s="1">
         <v>42369</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F73">
         <v>314576</v>
       </c>
       <c r="G73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J73">
         <v>53</v>
       </c>
       <c r="K73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D74" s="1">
         <v>42369</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>314576</v>
       </c>
       <c r="G74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J74">
         <v>53</v>
       </c>
       <c r="K74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D75" s="1">
         <v>42369</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F75">
         <v>314576</v>
       </c>
       <c r="G75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J75">
         <v>53</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>16</v>
-      </c>
       <c r="D76" s="1">
         <v>42369</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F76">
         <v>314878</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J76">
         <v>66</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D77" s="1">
         <v>42369</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F77">
         <v>314878</v>
       </c>
       <c r="G77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J77">
         <v>66</v>
       </c>
       <c r="K77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M77" t="s">
+        <v>134</v>
+      </c>
+      <c r="N77" t="s">
+        <v>134</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
         <v>136</v>
       </c>
-      <c r="N77" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" t="s">
-        <v>138</v>
-      </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1">
         <v>42369</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F78">
         <v>314878</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J78">
         <v>66</v>
       </c>
       <c r="K78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N78" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" s="1">
         <v>42369</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F79">
         <v>314878</v>
       </c>
       <c r="G79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J79">
         <v>66</v>
       </c>
       <c r="K79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="1">
         <v>42369</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F80">
         <v>314878</v>
       </c>
       <c r="G80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J80">
         <v>66</v>
       </c>
       <c r="K80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N80" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D81" s="1">
         <v>42369</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F81">
         <v>314878</v>
       </c>
       <c r="G81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J81">
         <v>66</v>
       </c>
       <c r="K81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N81" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D82" s="1">
         <v>42369</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F82">
         <v>314878</v>
       </c>
       <c r="G82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J82">
         <v>66</v>
       </c>
       <c r="K82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D83" s="1">
         <v>42369</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F83">
         <v>314878</v>
       </c>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J83">
         <v>66</v>
       </c>
       <c r="K83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" s="1">
         <v>42369</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F84">
         <v>314878</v>
       </c>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J84">
         <v>66</v>
       </c>
       <c r="K84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1">
         <v>42369</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F85">
         <v>314878</v>
       </c>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J85">
         <v>66</v>
       </c>
       <c r="K85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="B86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
       <c r="D86" s="1">
         <v>42369</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F86">
         <v>314885</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J86">
         <v>61</v>
       </c>
       <c r="K86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>146</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D87" s="1">
         <v>42369</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F87">
         <v>314885</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J87">
         <v>61</v>
       </c>
       <c r="K87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M87" t="s">
+        <v>146</v>
+      </c>
+      <c r="N87" t="s">
+        <v>146</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
         <v>148</v>
       </c>
-      <c r="N87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" t="s">
-        <v>150</v>
-      </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D88" s="1">
         <v>42369</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F88">
         <v>314885</v>
       </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J88">
         <v>61</v>
       </c>
       <c r="K88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>146</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D89" s="1">
         <v>42369</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>314871</v>
       </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J89">
         <v>57</v>
       </c>
       <c r="K89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1">
         <v>42369</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F90">
         <v>314871</v>
       </c>
       <c r="G90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J90">
         <v>57</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M90" t="s">
+        <v>150</v>
+      </c>
+      <c r="N90" t="s">
+        <v>150</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
         <v>152</v>
       </c>
-      <c r="N90" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
-        <v>154</v>
-      </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D91" s="1">
         <v>42369</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F91">
         <v>314871</v>
       </c>
       <c r="G91" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J91">
         <v>57</v>
       </c>
       <c r="K91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D92" s="1">
         <v>42369</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F92">
         <v>314871</v>
       </c>
       <c r="G92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J92">
         <v>57</v>
       </c>
       <c r="K92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D93" s="1">
         <v>42369</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F93">
         <v>314871</v>
       </c>
       <c r="G93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J93">
         <v>57</v>
       </c>
       <c r="K93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D94" s="1">
         <v>42369</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F94">
         <v>314616</v>
       </c>
       <c r="G94" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" t="s">
+        <v>92</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" t="s">
+        <v>157</v>
+      </c>
+      <c r="N94" t="s">
+        <v>157</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
         <v>158</v>
       </c>
-      <c r="H94" t="s">
-        <v>94</v>
-      </c>
-      <c r="I94" t="s">
-        <v>27</v>
-      </c>
-      <c r="J94">
-        <v>25</v>
-      </c>
-      <c r="K94" t="s">
-        <v>35</v>
-      </c>
-      <c r="L94" t="s">
-        <v>22</v>
-      </c>
-      <c r="M94" t="s">
-        <v>159</v>
-      </c>
-      <c r="N94" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>160</v>
-      </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D95" s="1">
         <v>42369</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F95">
         <v>314616</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J95">
         <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M95" t="s">
+        <v>157</v>
+      </c>
+      <c r="N95" t="s">
+        <v>157</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
         <v>159</v>
       </c>
-      <c r="N95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
-        <v>161</v>
-      </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D96" s="1">
         <v>42369</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F96">
         <v>314616</v>
       </c>
       <c r="G96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J96">
         <v>25</v>
       </c>
       <c r="K96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>157</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D97" s="1">
         <v>42369</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F97">
         <v>314616</v>
       </c>
       <c r="G97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H97" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J97">
         <v>25</v>
       </c>
       <c r="K97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>157</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D98" s="1">
         <v>42369</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>314616</v>
       </c>
       <c r="G98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I98" t="s">
+        <v>161</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98" t="s">
+        <v>33</v>
+      </c>
+      <c r="L98" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" t="s">
+        <v>157</v>
+      </c>
+      <c r="N98" t="s">
+        <v>157</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
         <v>163</v>
       </c>
-      <c r="J98">
-        <v>25</v>
-      </c>
-      <c r="K98" t="s">
-        <v>35</v>
-      </c>
-      <c r="L98" t="s">
-        <v>22</v>
-      </c>
-      <c r="M98" t="s">
-        <v>159</v>
-      </c>
-      <c r="N98" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
-        <v>165</v>
-      </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D99" s="1">
         <v>42369</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F99">
         <v>314616</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>157</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D100" s="1">
         <v>42369</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F100">
         <v>314616</v>
       </c>
       <c r="G100" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J100">
         <v>25</v>
       </c>
       <c r="K100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N100" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>157</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" t="s">
         <v>14</v>
       </c>
-      <c r="B101" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
       <c r="D101" s="1">
         <v>42369</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F101">
         <v>314736</v>
       </c>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J101">
         <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N101" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>166</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D102" s="1">
         <v>42369</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F102">
         <v>314736</v>
       </c>
       <c r="G102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H102" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J102">
         <v>65</v>
       </c>
       <c r="K102" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M102" t="s">
+        <v>166</v>
+      </c>
+      <c r="N102" t="s">
+        <v>166</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
         <v>168</v>
       </c>
-      <c r="N102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" t="s">
-        <v>170</v>
-      </c>
       <c r="C103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D103" s="1">
         <v>42369</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F103">
         <v>314736</v>
       </c>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J103">
         <v>65</v>
       </c>
       <c r="K103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N103" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>